--- a/branches/master/ValueSet-handedness-vs.xlsx
+++ b/branches/master/ValueSet-handedness-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-15T12:23:08+00:00</t>
+    <t>2023-04-15T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>My Organization</t>
   </si>
   <si>
     <t>Contact</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -245,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -335,39 +335,47 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>27</v>
       </c>
     </row>

--- a/branches/master/ValueSet-handedness-vs.xlsx
+++ b/branches/master/ValueSet-handedness-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ICD-10" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from International Cl" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-15T12:28:03+00:00</t>
+    <t>2023-04-15T12:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/sid/icd-10</t>
+    <t>http://hl7.org/fhir/sid/icd-10-cm</t>
   </si>
 </sst>
 </file>
